--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -546,7 +546,11 @@
           <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -576,7 +580,11 @@
           <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -1,37 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junpei/Library/CloudStorage/Dropbox/ファミリー ルーム/hosoe/Github/food_micro_data_risk/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED82DE-EE8E-D94C-99F5-38866E16651B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+  <si>
+    <t>年度</t>
+  </si>
+  <si>
+    <t>報告機関 ／ 報告プロジェクト</t>
+  </si>
+  <si>
+    <t>整理状況</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業） &lt;br&gt; 「と畜・食鳥処理場におけるHACCP検証方法の確立と食鳥処理工程の高度衛生管理に関する研究」 &lt;br&gt; 分担研究報告書[「めん羊枝肉表面の切除法による細菌汚染状況」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/7.%20%E5%88%86%E6%8B%85%E7%A0%94%E7%A9%B6%E2%91%A1%20p46-51.pdf)</t>
+  </si>
+  <si>
+    <t>済</t>
+  </si>
+  <si>
+    <t>**岐阜県保険環境研究所** &lt;br&gt; [_Salmonella_ lnfantisにより軽度に汚染された保育園給食を原因とする食中毒事例](https://www.jstage.jst.go.jp/article/jsfm/39/1/39_33/_pdf)</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
+  </si>
+  <si>
+    <t>1999-2001</t>
+  </si>
+  <si>
+    <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+  </si>
+  <si>
+    <t>未登録</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +126,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +450,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>年度</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>報告機関 ／ 報告プロジェクト</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>整理状況</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業） &lt;br&gt; 「と畜・食鳥処理場におけるHACCP検証方法の確立と食鳥処理工程の高度衛生管理に関する研究」 &lt;br&gt; 分担研究報告書[「めん羊枝肉表面の切除法による細菌汚染状況」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/7.%20%E5%88%86%E6%8B%85%E7%A0%94%E7%A9%B6%E2%91%A1%20p46-51.pdf)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>**岐阜県保険環境研究所** &lt;br&gt; [_Salmonella_ lnfantisにより軽度に汚染された保育園給食を原因とする食中毒事例](https://www.jstage.jst.go.jp/article/jsfm/39/1/39_33/_pdf)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1999-2001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -1,117 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junpei/Library/CloudStorage/Dropbox/ファミリー ルーム/hosoe/Github/food_micro_data_risk/tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DED82DE-EE8E-D94C-99F5-38866E16651B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
-  <si>
-    <t>年度</t>
-  </si>
-  <si>
-    <t>報告機関 ／ 報告プロジェクト</t>
-  </si>
-  <si>
-    <t>整理状況</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業） &lt;br&gt; 「と畜・食鳥処理場におけるHACCP検証方法の確立と食鳥処理工程の高度衛生管理に関する研究」 &lt;br&gt; 分担研究報告書[「めん羊枝肉表面の切除法による細菌汚染状況」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/7.%20%E5%88%86%E6%8B%85%E7%A0%94%E7%A9%B6%E2%91%A1%20p46-51.pdf)</t>
-  </si>
-  <si>
-    <t>済</t>
-  </si>
-  <si>
-    <t>**岐阜県保険環境研究所** &lt;br&gt; [_Salmonella_ lnfantisにより軽度に汚染された保育園給食を原因とする食中毒事例](https://www.jstage.jst.go.jp/article/jsfm/39/1/39_33/_pdf)</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
-  </si>
-  <si>
-    <t>1999-2001</t>
-  </si>
-  <si>
-    <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
-  </si>
-  <si>
-    <t>未登録</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,116 +420,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>年度</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>報告機関 ／ 報告プロジェクト</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>整理状況</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業） &lt;br&gt; 「と畜・食鳥処理場におけるHACCP検証方法の確立と食鳥処理工程の高度衛生管理に関する研究」 &lt;br&gt; 分担研究報告書[「めん羊枝肉表面の切除法による細菌汚染状況」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/7.%20%E5%88%86%E6%8B%85%E7%A0%94%E7%A9%B6%E2%91%A1%20p46-51.pdf)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>**岐阜県保険環境研究所** &lt;br&gt; [_Salmonella_ lnfantisにより軽度に汚染された保育園給食を原因とする食中毒事例](https://www.jstage.jst.go.jp/article/jsfm/39/1/39_33/_pdf)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1999-2001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>未登録</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,49 +538,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>**宮城県保険環境センター** &lt;br&gt; [_Salmonella_ Montevideoが検出された食中毒事例について](https://www.pref.miyagi.jp/documents/1979/209933.pdf)</t>
+          <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>未登録</t>
+          <t>済</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1999-2001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1999-2001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,15 +555,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2004-2011</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日獣会誌, 67, 442~448, 2014）</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>済</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>1999-2001</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>未登録</t>
         </is>

--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日獣会誌, 67, 442~448, 2014）</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67巻, 442~448, 2014）</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,23 +569,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1999-2001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販食肉におけるサルモネラとリステリアの汚染状況](https://www.jstage.jst.go.jp/article/jvma1951/56/3/56_3_167/_pdf/-char/en)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>未登録</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/table_Salmonella.xlsx
+++ b/tables/table_Salmonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>**岐阜県保険環境研究所** &lt;br&gt; [_Salmonella_ lnfantisにより軽度に汚染された保育園給食を原因とする食中毒事例](https://www.jstage.jst.go.jp/article/jsfm/39/1/39_33/_pdf)</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,12 +487,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の定量汚染の調査」](https://mhlw-grants.niph.go.jp/system/files/report_pdf/202024029A-buntan3.pdf)</t>
+          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>**国立医薬品食品衛生研究所** &lt;br&gt; 厚生労働科学研究費（食品の安全確保推進研究事業）&lt;br&gt;「畜産食品の生物学的ハザードとそのリスクを低減するための研究」&lt;br&gt;分担研究報告書[「鶏肉加工製品におけるサルモネラ等の汚染実態に関する研究」](https://mhlw-grants.niph.go.jp/system/files/2019/193031/201924021A_upload/201924021A0006.pdf)</t>
+          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,49 +521,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2004-2011</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>**農林水産省** &lt;br&gt; [ブロイラー鶏群から製造された中抜きと体及び鶏肉のサルモネラ濃度調査](https://www.maff.go.jp/j/syouan/seisaku/kekka/keiniku/sal/07.html#21222)</t>
+          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67巻, 442~448, 2014）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>**岩手県環境保健研究センター** &lt;br&gt; [同時期に _Salmonella_ Weltevreden および _Salmonella_ Saintpaul が分離された食中毒2事例](https://www.jstage.jst.go.jp/article/jsfm1994/23/3/23_3_165/_pdf/-char/ja)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>済</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2004-2011</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>**埼玉県衛生研究所** &lt;br&gt; [市販鶏肉のカンピロバクター及びサルモネラ汚染状況と分離株の薬剤感受性](https://jvma-vet.jp/mag/06706/d2.pdf) &lt;br&gt;（日本獣医師会雑誌, 67巻, 442~448, 2014）</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>済</t>
         </is>
